--- a/Data/data_test.xlsx
+++ b/Data/data_test.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\datos Antiguo\Master_Data_Science\Regression models\2024\Modelling competition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9EE615-E721-4BA7-BD54-D9770B6C3B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A9ADF86-9080-48C1-AF4D-1F88F286F862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="732" windowWidth="20724" windowHeight="12228"/>
+    <workbookView xWindow="12" yWindow="732" windowWidth="20724" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="163">
   <si>
     <t>test_indices</t>
   </si>
@@ -58,12 +58,6 @@
     <t>banos</t>
   </si>
   <si>
-    <t>tipo.casa,</t>
-  </si>
-  <si>
-    <t>inter.exter,</t>
-  </si>
-  <si>
     <t>ascensor</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
   </si>
   <si>
     <t>Delincuencia</t>
-  </si>
-  <si>
-    <t>M,30</t>
   </si>
   <si>
     <t>CO</t>
@@ -199,9 +190,6 @@
     <t>san_blas</t>
   </si>
   <si>
-    <t>Arg黣lles</t>
-  </si>
-  <si>
     <t>Atocha</t>
   </si>
   <si>
@@ -241,19 +229,10 @@
     <t>Canillejas</t>
   </si>
   <si>
-    <t>C醨menes</t>
-  </si>
-  <si>
     <t>Casa de Campo</t>
   </si>
   <si>
-    <t>Casco Hist髍ico de Vallecas</t>
-  </si>
-  <si>
     <t>vallecas</t>
-  </si>
-  <si>
-    <t>Casco Hist髍ico de Vic醠varo</t>
   </si>
   <si>
     <t>vicalvaro</t>
@@ -289,9 +268,6 @@
     <t>Comillas</t>
   </si>
   <si>
-    <t>Concepci髇</t>
-  </si>
-  <si>
     <t>ciudad_lineal</t>
   </si>
   <si>
@@ -322,9 +298,6 @@
     <t>centro</t>
   </si>
   <si>
-    <t>Entrev韆s</t>
-  </si>
-  <si>
     <t>puente_vallecas</t>
   </si>
   <si>
@@ -332,9 +305,6 @@
   </si>
   <si>
     <t>Estrella</t>
-  </si>
-  <si>
-    <t>Fontarr髇</t>
   </si>
   <si>
     <t>moratalaz</t>
@@ -347,9 +317,6 @@
   </si>
   <si>
     <t>Guindalera</t>
-  </si>
-  <si>
-    <t>Hispanoam閞ica</t>
   </si>
   <si>
     <t>Ibiza</t>
@@ -379,22 +346,10 @@
     <t>Mirasierra</t>
   </si>
   <si>
-    <t>Moscard?125</t>
-  </si>
-  <si>
-    <t>Nueva Espa馻</t>
-  </si>
-  <si>
     <t>Numancia</t>
   </si>
   <si>
-    <t>Opa馿l</t>
-  </si>
-  <si>
     <t>Orcasitas</t>
-  </si>
-  <si>
-    <t>Pac韋ico</t>
   </si>
   <si>
     <t>Palacio</t>
@@ -407,9 +362,6 @@
   </si>
   <si>
     <t>Pavones</t>
-  </si>
-  <si>
-    <t>Pe馻grande</t>
   </si>
   <si>
     <t>Pilar</t>
@@ -472,9 +424,6 @@
     <t>Sol</t>
   </si>
   <si>
-    <t>Tim髇</t>
-  </si>
-  <si>
     <t>Trafalgar</t>
   </si>
   <si>
@@ -511,13 +460,61 @@
     <t>Vista Alegre</t>
   </si>
   <si>
-    <t>Zof韔</t>
+    <t>inter.exter</t>
+  </si>
+  <si>
+    <t>tipo.casa</t>
+  </si>
+  <si>
+    <t>M.30</t>
+  </si>
+  <si>
+    <t>Moscardo</t>
+  </si>
+  <si>
+    <t>Nueva España</t>
+  </si>
+  <si>
+    <t>Pacifico</t>
+  </si>
+  <si>
+    <t>Opañel</t>
+  </si>
+  <si>
+    <t>Peñagrande</t>
+  </si>
+  <si>
+    <t>Timon</t>
+  </si>
+  <si>
+    <t>Zofio</t>
+  </si>
+  <si>
+    <t>Hispanoamerica</t>
+  </si>
+  <si>
+    <t>Fontarron</t>
+  </si>
+  <si>
+    <t>Entrevias</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
+    <t>Casco Historico de Vallecas</t>
+  </si>
+  <si>
+    <t>Carmenes</t>
+  </si>
+  <si>
+    <t>Arguelles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1352,10 +1349,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -1397,73 +1396,73 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -1471,13 +1470,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1504,16 +1503,16 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
       </c>
       <c r="Q2">
         <v>30</v>
@@ -1578,13 +1577,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1611,16 +1610,16 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>30</v>
@@ -1685,13 +1684,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1718,16 +1717,16 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q4">
         <v>32.446438139999998</v>
@@ -1792,13 +1791,13 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1825,16 +1824,16 @@
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q5">
         <v>30</v>
@@ -1899,13 +1898,13 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1932,16 +1931,16 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2006,13 +2005,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -2039,16 +2038,16 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q7">
         <v>40</v>
@@ -2113,13 +2112,13 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -2146,16 +2145,16 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>40</v>
@@ -2220,13 +2219,13 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -2253,16 +2252,16 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q9">
         <v>40</v>
@@ -2327,13 +2326,13 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -2360,16 +2359,16 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q10">
         <v>25</v>
@@ -2434,13 +2433,13 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -2467,16 +2466,16 @@
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q11">
         <v>40</v>
@@ -2541,13 +2540,13 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -2574,16 +2573,16 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q12">
         <v>30</v>
@@ -2648,13 +2647,13 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -2681,16 +2680,16 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>30</v>
@@ -2755,13 +2754,13 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -2788,16 +2787,16 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q14">
         <v>34.788991449999997</v>
@@ -2862,13 +2861,13 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>12</v>
@@ -2895,16 +2894,16 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q15">
         <v>30</v>
@@ -2969,13 +2968,13 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -3002,16 +3001,16 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
         <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" t="s">
-        <v>40</v>
       </c>
       <c r="Q16">
         <v>30</v>
@@ -3076,13 +3075,13 @@
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -3109,16 +3108,16 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q17">
         <v>35</v>
@@ -3183,13 +3182,13 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -3216,16 +3215,16 @@
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q18">
         <v>35</v>
@@ -3290,13 +3289,13 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>16</v>
@@ -3323,16 +3322,16 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -3397,13 +3396,13 @@
         <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20">
         <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>9</v>
@@ -3430,16 +3429,16 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q20">
         <v>30</v>
@@ -3504,13 +3503,13 @@
         <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -3537,16 +3536,16 @@
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q21">
         <v>15.00019468</v>
@@ -3611,13 +3610,13 @@
         <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -3644,16 +3643,16 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q22">
         <v>40</v>
@@ -3718,13 +3717,13 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>204</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -3751,16 +3750,16 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q23">
         <v>25</v>
@@ -3825,13 +3824,13 @@
         <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -3858,16 +3857,16 @@
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q24">
         <v>7.5</v>
@@ -3932,13 +3931,13 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>204</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -3965,16 +3964,16 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q25">
         <v>15</v>
@@ -4039,13 +4038,13 @@
         <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="C26">
         <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E26">
         <v>9</v>
@@ -4072,16 +4071,16 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q26">
         <v>24.022315209999999</v>
@@ -4146,13 +4145,13 @@
         <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -4179,16 +4178,16 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -4253,13 +4252,13 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -4286,16 +4285,16 @@
         <v>2</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q28">
         <v>25</v>
@@ -4360,13 +4359,13 @@
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -4393,16 +4392,16 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q29">
         <v>25</v>
@@ -4467,13 +4466,13 @@
         <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -4500,16 +4499,16 @@
         <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -4574,13 +4573,13 @@
         <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -4607,16 +4606,16 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q31">
         <v>30</v>
@@ -4681,13 +4680,13 @@
         <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C32">
         <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -4714,16 +4713,16 @@
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -4788,13 +4787,13 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E33">
         <v>6</v>
@@ -4821,16 +4820,16 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q33">
         <v>30</v>
@@ -4895,13 +4894,13 @@
         <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -4928,16 +4927,16 @@
         <v>2</v>
       </c>
       <c r="M34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q34">
         <v>7.5</v>
@@ -5002,13 +5001,13 @@
         <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -5035,16 +5034,16 @@
         <v>1</v>
       </c>
       <c r="M35" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" t="s">
         <v>37</v>
-      </c>
-      <c r="N35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O35" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" t="s">
-        <v>40</v>
       </c>
       <c r="Q35">
         <v>30</v>
@@ -5109,13 +5108,13 @@
         <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C36">
         <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>11</v>
@@ -5142,16 +5141,16 @@
         <v>2</v>
       </c>
       <c r="M36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q36">
         <v>7.5</v>
@@ -5216,13 +5215,13 @@
         <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>17</v>
@@ -5249,16 +5248,16 @@
         <v>2</v>
       </c>
       <c r="M37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -5323,13 +5322,13 @@
         <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>17</v>
@@ -5356,16 +5355,16 @@
         <v>2</v>
       </c>
       <c r="M38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q38">
         <v>2.5</v>
@@ -5430,13 +5429,13 @@
         <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E39">
         <v>17</v>
@@ -5463,16 +5462,16 @@
         <v>2</v>
       </c>
       <c r="M39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -5537,13 +5536,13 @@
         <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C40">
         <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -5570,16 +5569,16 @@
         <v>3</v>
       </c>
       <c r="M40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q40">
         <v>35</v>
@@ -5644,13 +5643,13 @@
         <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C41">
         <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>16</v>
@@ -5677,16 +5676,16 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q41">
         <v>40</v>
@@ -5751,13 +5750,13 @@
         <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C42">
         <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>16</v>
@@ -5784,16 +5783,16 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q42">
         <v>15</v>
@@ -5858,13 +5857,13 @@
         <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C43">
         <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E43">
         <v>20</v>
@@ -5891,16 +5890,16 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q43">
         <v>7.5</v>
@@ -5965,13 +5964,13 @@
         <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C44">
         <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E44">
         <v>20</v>
@@ -5998,16 +5997,16 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" t="s">
+        <v>36</v>
+      </c>
+      <c r="P44" t="s">
         <v>37</v>
-      </c>
-      <c r="N44" t="s">
-        <v>38</v>
-      </c>
-      <c r="O44" t="s">
-        <v>39</v>
-      </c>
-      <c r="P44" t="s">
-        <v>40</v>
       </c>
       <c r="Q44">
         <v>40</v>
@@ -6072,13 +6071,13 @@
         <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C45">
         <v>207</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E45">
         <v>20</v>
@@ -6105,16 +6104,16 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q45">
         <v>40</v>
@@ -6179,13 +6178,13 @@
         <v>161</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C46">
         <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -6212,16 +6211,16 @@
         <v>2</v>
       </c>
       <c r="M46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q46">
         <v>15</v>
@@ -6286,13 +6285,13 @@
         <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C47">
         <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -6319,16 +6318,16 @@
         <v>2</v>
       </c>
       <c r="M47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q47">
         <v>25.257945979999999</v>
@@ -6393,13 +6392,13 @@
         <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C48">
         <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E48">
         <v>9</v>
@@ -6426,16 +6425,16 @@
         <v>1</v>
       </c>
       <c r="M48" t="s">
+        <v>34</v>
+      </c>
+      <c r="N48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" t="s">
+        <v>39</v>
+      </c>
+      <c r="P48" t="s">
         <v>37</v>
-      </c>
-      <c r="N48" t="s">
-        <v>38</v>
-      </c>
-      <c r="O48" t="s">
-        <v>42</v>
-      </c>
-      <c r="P48" t="s">
-        <v>40</v>
       </c>
       <c r="Q48">
         <v>30</v>
@@ -6500,13 +6499,13 @@
         <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C49">
         <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E49">
         <v>9</v>
@@ -6533,16 +6532,16 @@
         <v>2</v>
       </c>
       <c r="M49" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" t="s">
+        <v>39</v>
+      </c>
+      <c r="P49" t="s">
         <v>37</v>
-      </c>
-      <c r="N49" t="s">
-        <v>38</v>
-      </c>
-      <c r="O49" t="s">
-        <v>42</v>
-      </c>
-      <c r="P49" t="s">
-        <v>40</v>
       </c>
       <c r="Q49">
         <v>30</v>
@@ -6607,13 +6606,13 @@
         <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="C50">
         <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E50">
         <v>18</v>
@@ -6640,16 +6639,16 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q50">
         <v>25</v>
@@ -6714,13 +6713,13 @@
         <v>185</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="C51">
         <v>181</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E51">
         <v>18</v>
@@ -6747,16 +6746,16 @@
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -6821,13 +6820,13 @@
         <v>189</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="C52">
         <v>181</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E52">
         <v>18</v>
@@ -6854,16 +6853,16 @@
         <v>2</v>
       </c>
       <c r="M52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -6928,13 +6927,13 @@
         <v>193</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="C53">
         <v>181</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E53">
         <v>18</v>
@@ -6961,16 +6960,16 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O53" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q53">
         <v>29.99011973</v>
@@ -7035,13 +7034,13 @@
         <v>194</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="C54">
         <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E54">
         <v>18</v>
@@ -7068,16 +7067,16 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q54">
         <v>25</v>
@@ -7142,13 +7141,13 @@
         <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="C55">
         <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E55">
         <v>19</v>
@@ -7175,16 +7174,16 @@
         <v>2</v>
       </c>
       <c r="M55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q55">
         <v>75</v>
@@ -7249,13 +7248,13 @@
         <v>211</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="C56">
         <v>191</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E56">
         <v>19</v>
@@ -7282,16 +7281,16 @@
         <v>2</v>
       </c>
       <c r="M56" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P56" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q56">
         <v>0.11016342899999999</v>
@@ -7356,13 +7355,13 @@
         <v>212</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="C57">
         <v>191</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E57">
         <v>19</v>
@@ -7389,16 +7388,16 @@
         <v>2</v>
       </c>
       <c r="M57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q57">
         <v>19.393047259999999</v>
@@ -7463,13 +7462,13 @@
         <v>213</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="C58">
         <v>191</v>
       </c>
       <c r="D58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E58">
         <v>19</v>
@@ -7496,16 +7495,16 @@
         <v>2</v>
       </c>
       <c r="M58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q58">
         <v>25</v>
@@ -7570,13 +7569,13 @@
         <v>217</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C59">
         <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -7603,16 +7602,16 @@
         <v>4</v>
       </c>
       <c r="M59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P59" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q59">
         <v>22.39219074</v>
@@ -7677,13 +7676,13 @@
         <v>218</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C60">
         <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -7710,16 +7709,16 @@
         <v>2</v>
       </c>
       <c r="M60" t="s">
+        <v>34</v>
+      </c>
+      <c r="N60" t="s">
+        <v>35</v>
+      </c>
+      <c r="O60" t="s">
+        <v>39</v>
+      </c>
+      <c r="P60" t="s">
         <v>37</v>
-      </c>
-      <c r="N60" t="s">
-        <v>38</v>
-      </c>
-      <c r="O60" t="s">
-        <v>42</v>
-      </c>
-      <c r="P60" t="s">
-        <v>40</v>
       </c>
       <c r="Q60">
         <v>40</v>
@@ -7784,13 +7783,13 @@
         <v>222</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C61">
         <v>56</v>
       </c>
       <c r="D61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -7817,16 +7816,16 @@
         <v>2</v>
       </c>
       <c r="M61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q61">
         <v>30</v>
@@ -7891,13 +7890,13 @@
         <v>223</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C62">
         <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E62">
         <v>5</v>
@@ -7924,16 +7923,16 @@
         <v>3</v>
       </c>
       <c r="M62" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P62" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q62">
         <v>15</v>
@@ -7998,13 +7997,13 @@
         <v>232</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C63">
         <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -8031,16 +8030,16 @@
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O63" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -8105,13 +8104,13 @@
         <v>241</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C64">
         <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -8138,16 +8137,16 @@
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P64" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q64">
         <v>30</v>
@@ -8212,13 +8211,13 @@
         <v>243</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C65">
         <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -8245,16 +8244,16 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
+        <v>34</v>
+      </c>
+      <c r="N65" t="s">
+        <v>38</v>
+      </c>
+      <c r="O65" t="s">
+        <v>36</v>
+      </c>
+      <c r="P65" t="s">
         <v>37</v>
-      </c>
-      <c r="N65" t="s">
-        <v>41</v>
-      </c>
-      <c r="O65" t="s">
-        <v>39</v>
-      </c>
-      <c r="P65" t="s">
-        <v>40</v>
       </c>
       <c r="Q65">
         <v>30</v>
@@ -8319,13 +8318,13 @@
         <v>248</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C66">
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -8352,16 +8351,16 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q66">
         <v>30</v>
@@ -8426,13 +8425,13 @@
         <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C67">
         <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E67">
         <v>9</v>
@@ -8459,16 +8458,16 @@
         <v>2</v>
       </c>
       <c r="M67" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O67" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -8533,13 +8532,13 @@
         <v>267</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C68">
         <v>93</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E68">
         <v>9</v>
@@ -8566,16 +8565,16 @@
         <v>2</v>
       </c>
       <c r="M68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q68">
         <v>25</v>
@@ -8640,13 +8639,13 @@
         <v>268</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C69">
         <v>93</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E69">
         <v>9</v>
@@ -8673,16 +8672,16 @@
         <v>2</v>
       </c>
       <c r="M69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O69" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q69">
         <v>30</v>
@@ -8747,13 +8746,13 @@
         <v>279</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C70">
         <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E70">
         <v>11</v>
@@ -8780,16 +8779,16 @@
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P70" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q70">
         <v>40</v>
@@ -8854,13 +8853,13 @@
         <v>283</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C71">
         <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E71">
         <v>11</v>
@@ -8887,16 +8886,16 @@
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P71" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q71">
         <v>25</v>
@@ -8961,13 +8960,13 @@
         <v>285</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C72">
         <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E72">
         <v>11</v>
@@ -8994,16 +8993,16 @@
         <v>2</v>
       </c>
       <c r="M72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P72" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q72">
         <v>40</v>
@@ -9068,13 +9067,13 @@
         <v>288</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="C73">
         <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E73">
         <v>15</v>
@@ -9101,16 +9100,16 @@
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O73" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q73">
         <v>40</v>
@@ -9175,13 +9174,13 @@
         <v>291</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="C74">
         <v>154</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E74">
         <v>15</v>
@@ -9208,16 +9207,16 @@
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P74" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q74">
         <v>36.243816500000001</v>
@@ -9282,13 +9281,13 @@
         <v>292</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="C75">
         <v>154</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E75">
         <v>15</v>
@@ -9315,16 +9314,16 @@
         <v>1</v>
       </c>
       <c r="M75" t="s">
+        <v>34</v>
+      </c>
+      <c r="N75" t="s">
+        <v>35</v>
+      </c>
+      <c r="O75" t="s">
+        <v>39</v>
+      </c>
+      <c r="P75" t="s">
         <v>37</v>
-      </c>
-      <c r="N75" t="s">
-        <v>38</v>
-      </c>
-      <c r="O75" t="s">
-        <v>42</v>
-      </c>
-      <c r="P75" t="s">
-        <v>40</v>
       </c>
       <c r="Q75">
         <v>30</v>
@@ -9389,13 +9388,13 @@
         <v>295</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="C76">
         <v>154</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E76">
         <v>15</v>
@@ -9422,16 +9421,16 @@
         <v>2</v>
       </c>
       <c r="M76" t="s">
+        <v>34</v>
+      </c>
+      <c r="N76" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" t="s">
+        <v>39</v>
+      </c>
+      <c r="P76" t="s">
         <v>37</v>
-      </c>
-      <c r="N76" t="s">
-        <v>38</v>
-      </c>
-      <c r="O76" t="s">
-        <v>42</v>
-      </c>
-      <c r="P76" t="s">
-        <v>40</v>
       </c>
       <c r="Q76">
         <v>40</v>
@@ -9496,13 +9495,13 @@
         <v>296</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C77">
         <v>215</v>
       </c>
       <c r="D77" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E77">
         <v>21</v>
@@ -9529,16 +9528,16 @@
         <v>2</v>
       </c>
       <c r="M77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q77">
         <v>7.5</v>
@@ -9603,13 +9602,13 @@
         <v>297</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C78">
         <v>215</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E78">
         <v>21</v>
@@ -9636,16 +9635,16 @@
         <v>2</v>
       </c>
       <c r="M78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N78" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P78" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q78">
         <v>7.5</v>
@@ -9710,13 +9709,13 @@
         <v>309</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C79">
         <v>62</v>
       </c>
       <c r="D79" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E79">
         <v>6</v>
@@ -9743,16 +9742,16 @@
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P79" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q79">
         <v>40</v>
@@ -9817,13 +9816,13 @@
         <v>312</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C80">
         <v>62</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E80">
         <v>6</v>
@@ -9850,16 +9849,16 @@
         <v>2</v>
       </c>
       <c r="M80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O80" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P80" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q80">
         <v>34</v>
@@ -9924,13 +9923,13 @@
         <v>315</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C81">
         <v>62</v>
       </c>
       <c r="D81" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E81">
         <v>6</v>
@@ -9957,16 +9956,16 @@
         <v>2</v>
       </c>
       <c r="M81" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P81" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q81">
         <v>15</v>
@@ -10031,13 +10030,13 @@
         <v>331</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C82">
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -10064,16 +10063,16 @@
         <v>1</v>
       </c>
       <c r="M82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P82" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q82">
         <v>40</v>
@@ -10138,13 +10137,13 @@
         <v>341</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C83">
         <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -10171,16 +10170,16 @@
         <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P83" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -10245,13 +10244,13 @@
         <v>344</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C84">
         <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E84">
         <v>5</v>
@@ -10278,16 +10277,16 @@
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P84" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q84">
         <v>30</v>
@@ -10352,13 +10351,13 @@
         <v>347</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C85">
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -10385,16 +10384,16 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O85" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P85" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q85">
         <v>32.87039437</v>
@@ -10459,13 +10458,13 @@
         <v>349</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C86">
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -10492,16 +10491,16 @@
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N86" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P86" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q86">
         <v>30</v>
@@ -10566,13 +10565,13 @@
         <v>351</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C87">
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -10599,16 +10598,16 @@
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N87" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q87">
         <v>30</v>
@@ -10673,13 +10672,13 @@
         <v>352</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -10706,16 +10705,16 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P88" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q88">
         <v>14.97893528</v>
@@ -10780,13 +10779,13 @@
         <v>355</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C89">
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -10813,16 +10812,16 @@
         <v>1</v>
       </c>
       <c r="M89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N89" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O89" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P89" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q89">
         <v>30</v>
@@ -10887,13 +10886,13 @@
         <v>356</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C90">
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -10920,16 +10919,16 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N90" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O90" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P90" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q90">
         <v>30</v>
@@ -10994,13 +10993,13 @@
         <v>357</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C91">
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -11027,16 +11026,16 @@
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N91" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O91" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P91" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q91">
         <v>40</v>
@@ -11101,13 +11100,13 @@
         <v>358</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C92">
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -11134,16 +11133,16 @@
         <v>1</v>
       </c>
       <c r="M92" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O92" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P92" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q92">
         <v>30</v>
@@ -11208,13 +11207,13 @@
         <v>360</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -11241,16 +11240,16 @@
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O93" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P93" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q93">
         <v>30</v>
@@ -11315,13 +11314,13 @@
         <v>362</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C94">
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -11348,16 +11347,16 @@
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N94" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O94" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P94" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q94">
         <v>30</v>
@@ -11422,13 +11421,13 @@
         <v>364</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C95">
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -11455,16 +11454,16 @@
         <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N95" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O95" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P95" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q95">
         <v>30</v>
@@ -11529,13 +11528,13 @@
         <v>367</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C96">
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -11562,16 +11561,16 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N96" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q96">
         <v>40</v>
@@ -11636,13 +11635,13 @@
         <v>372</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C97">
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -11669,16 +11668,16 @@
         <v>2</v>
       </c>
       <c r="M97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O97" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P97" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q97">
         <v>30</v>
@@ -11743,13 +11742,13 @@
         <v>379</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C98">
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -11776,16 +11775,16 @@
         <v>1</v>
       </c>
       <c r="M98" t="s">
+        <v>34</v>
+      </c>
+      <c r="N98" t="s">
+        <v>35</v>
+      </c>
+      <c r="O98" t="s">
+        <v>39</v>
+      </c>
+      <c r="P98" t="s">
         <v>37</v>
-      </c>
-      <c r="N98" t="s">
-        <v>38</v>
-      </c>
-      <c r="O98" t="s">
-        <v>42</v>
-      </c>
-      <c r="P98" t="s">
-        <v>40</v>
       </c>
       <c r="Q98">
         <v>30</v>
@@ -11850,13 +11849,13 @@
         <v>382</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="C99">
         <v>131</v>
       </c>
       <c r="D99" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E99">
         <v>13</v>
@@ -11883,16 +11882,16 @@
         <v>1</v>
       </c>
       <c r="M99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O99" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P99" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q99">
         <v>30</v>
@@ -11957,13 +11956,13 @@
         <v>384</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="C100">
         <v>131</v>
       </c>
       <c r="D100" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E100">
         <v>13</v>
@@ -11990,16 +11989,16 @@
         <v>1</v>
       </c>
       <c r="M100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O100" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P100" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q100">
         <v>35</v>
@@ -12064,13 +12063,13 @@
         <v>385</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="C101">
         <v>131</v>
       </c>
       <c r="D101" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E101">
         <v>13</v>
@@ -12097,16 +12096,16 @@
         <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N101" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O101" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P101" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Q101">
         <v>40</v>
@@ -12171,13 +12170,13 @@
         <v>396</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C102">
         <v>33</v>
       </c>
       <c r="D102" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E102">
         <v>3</v>
@@ -12204,16 +12203,16 @@
         <v>1</v>
       </c>
       <c r="M102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N102" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P102" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q102">
         <v>25</v>
@@ -12278,13 +12277,13 @@
         <v>397</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C103">
         <v>33</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -12311,16 +12310,16 @@
         <v>1</v>
       </c>
       <c r="M103" t="s">
+        <v>34</v>
+      </c>
+      <c r="N103" t="s">
+        <v>35</v>
+      </c>
+      <c r="O103" t="s">
+        <v>36</v>
+      </c>
+      <c r="P103" t="s">
         <v>37</v>
-      </c>
-      <c r="N103" t="s">
-        <v>38</v>
-      </c>
-      <c r="O103" t="s">
-        <v>39</v>
-      </c>
-      <c r="P103" t="s">
-        <v>40</v>
       </c>
       <c r="Q103">
         <v>40</v>
@@ -12385,13 +12384,13 @@
         <v>400</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C104">
         <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -12418,16 +12417,16 @@
         <v>2</v>
       </c>
       <c r="M104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P104" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q104">
         <v>25</v>
@@ -12492,13 +12491,13 @@
         <v>401</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C105">
         <v>33</v>
       </c>
       <c r="D105" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -12525,16 +12524,16 @@
         <v>2</v>
       </c>
       <c r="M105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P105" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q105">
         <v>27.073451479999999</v>
@@ -12599,13 +12598,13 @@
         <v>402</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C106">
         <v>145</v>
       </c>
       <c r="D106" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E106">
         <v>14</v>
@@ -12632,16 +12631,16 @@
         <v>1</v>
       </c>
       <c r="M106" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N106" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O106" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q106">
         <v>36.809291770000002</v>
@@ -12706,13 +12705,13 @@
         <v>405</v>
       </c>
       <c r="B107" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C107">
         <v>145</v>
       </c>
       <c r="D107" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E107">
         <v>14</v>
@@ -12739,16 +12738,16 @@
         <v>2</v>
       </c>
       <c r="M107" t="s">
+        <v>34</v>
+      </c>
+      <c r="N107" t="s">
+        <v>35</v>
+      </c>
+      <c r="O107" t="s">
+        <v>36</v>
+      </c>
+      <c r="P107" t="s">
         <v>37</v>
-      </c>
-      <c r="N107" t="s">
-        <v>38</v>
-      </c>
-      <c r="O107" t="s">
-        <v>39</v>
-      </c>
-      <c r="P107" t="s">
-        <v>40</v>
       </c>
       <c r="Q107">
         <v>40</v>
@@ -12813,13 +12812,13 @@
         <v>410</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C108">
         <v>43</v>
       </c>
       <c r="D108" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E108">
         <v>4</v>
@@ -12846,16 +12845,16 @@
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O108" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P108" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q108">
         <v>23.4882442</v>
@@ -12920,13 +12919,13 @@
         <v>415</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C109">
         <v>43</v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -12953,16 +12952,16 @@
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O109" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P109" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q109">
         <v>40</v>
@@ -13027,13 +13026,13 @@
         <v>424</v>
       </c>
       <c r="B110" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C110">
         <v>42</v>
       </c>
       <c r="D110" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -13060,16 +13059,16 @@
         <v>1</v>
       </c>
       <c r="M110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N110" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O110" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P110" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q110">
         <v>30</v>
@@ -13134,13 +13133,13 @@
         <v>427</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C111">
         <v>42</v>
       </c>
       <c r="D111" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E111">
         <v>4</v>
@@ -13167,16 +13166,16 @@
         <v>2</v>
       </c>
       <c r="M111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N111" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O111" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P111" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -13241,13 +13240,13 @@
         <v>428</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C112">
         <v>42</v>
       </c>
       <c r="D112" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -13274,16 +13273,16 @@
         <v>2</v>
       </c>
       <c r="M112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N112" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O112" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P112" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q112">
         <v>0</v>
@@ -13348,13 +13347,13 @@
         <v>437</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C113">
         <v>44</v>
       </c>
       <c r="D113" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -13381,16 +13380,16 @@
         <v>2</v>
       </c>
       <c r="M113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O113" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P113" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q113">
         <v>3.9375896500000001</v>
@@ -13455,13 +13454,13 @@
         <v>439</v>
       </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C114">
         <v>44</v>
       </c>
       <c r="D114" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -13488,16 +13487,16 @@
         <v>2</v>
       </c>
       <c r="M114" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O114" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P114" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q114">
         <v>26.922840180000001</v>
@@ -13562,13 +13561,13 @@
         <v>444</v>
       </c>
       <c r="B115" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C115">
         <v>44</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E115">
         <v>4</v>
@@ -13595,16 +13594,16 @@
         <v>3</v>
       </c>
       <c r="M115" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O115" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P115" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q115">
         <v>30</v>
@@ -13669,13 +13668,13 @@
         <v>445</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C116">
         <v>44</v>
       </c>
       <c r="D116" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E116">
         <v>4</v>
@@ -13702,16 +13701,16 @@
         <v>3</v>
       </c>
       <c r="M116" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O116" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P116" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q116">
         <v>31.25701523</v>
@@ -13776,13 +13775,13 @@
         <v>454</v>
       </c>
       <c r="B117" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C117">
         <v>54</v>
       </c>
       <c r="D117" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E117">
         <v>5</v>
@@ -13809,16 +13808,16 @@
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O117" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P117" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q117">
         <v>30</v>
@@ -13883,13 +13882,13 @@
         <v>457</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C118">
         <v>54</v>
       </c>
       <c r="D118" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -13916,16 +13915,16 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N118" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O118" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P118" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q118">
         <v>28.988675050000001</v>
@@ -13990,13 +13989,13 @@
         <v>462</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C119">
         <v>54</v>
       </c>
       <c r="D119" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E119">
         <v>5</v>
@@ -14023,16 +14022,16 @@
         <v>3</v>
       </c>
       <c r="M119" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O119" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P119" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q119">
         <v>25</v>
@@ -14097,13 +14096,13 @@
         <v>464</v>
       </c>
       <c r="B120" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="C120">
         <v>54</v>
       </c>
       <c r="D120" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E120">
         <v>5</v>
@@ -14130,16 +14129,16 @@
         <v>4</v>
       </c>
       <c r="M120" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N120" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P120" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q120">
         <v>30</v>
@@ -14204,13 +14203,13 @@
         <v>470</v>
       </c>
       <c r="B121" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C121">
         <v>34</v>
       </c>
       <c r="D121" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E121">
         <v>3</v>
@@ -14237,16 +14236,16 @@
         <v>2</v>
       </c>
       <c r="M121" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N121" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O121" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P121" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q121">
         <v>24.359018169999999</v>
@@ -14311,13 +14310,13 @@
         <v>479</v>
       </c>
       <c r="B122" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C122">
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -14344,16 +14343,16 @@
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N122" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O122" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P122" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q122">
         <v>30</v>
@@ -14418,13 +14417,13 @@
         <v>494</v>
       </c>
       <c r="B123" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C123">
         <v>85</v>
       </c>
       <c r="D123" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E123">
         <v>8</v>
@@ -14451,16 +14450,16 @@
         <v>2</v>
       </c>
       <c r="M123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N123" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O123" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q123">
         <v>25</v>
@@ -14525,13 +14524,13 @@
         <v>504</v>
       </c>
       <c r="B124" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C124">
         <v>45</v>
       </c>
       <c r="D124" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E124">
         <v>4</v>
@@ -14558,16 +14557,16 @@
         <v>1</v>
       </c>
       <c r="M124" t="s">
+        <v>34</v>
+      </c>
+      <c r="N124" t="s">
+        <v>38</v>
+      </c>
+      <c r="O124" t="s">
+        <v>39</v>
+      </c>
+      <c r="P124" t="s">
         <v>37</v>
-      </c>
-      <c r="N124" t="s">
-        <v>41</v>
-      </c>
-      <c r="O124" t="s">
-        <v>42</v>
-      </c>
-      <c r="P124" t="s">
-        <v>40</v>
       </c>
       <c r="Q124">
         <v>33.506541669999997</v>
@@ -14632,13 +14631,13 @@
         <v>509</v>
       </c>
       <c r="B125" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C125">
         <v>45</v>
       </c>
       <c r="D125" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E125">
         <v>4</v>
@@ -14665,16 +14664,16 @@
         <v>2</v>
       </c>
       <c r="M125" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N125" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O125" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P125" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q125">
         <v>31.06960372</v>
@@ -14739,13 +14738,13 @@
         <v>511</v>
       </c>
       <c r="B126" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C126">
         <v>45</v>
       </c>
       <c r="D126" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -14772,16 +14771,16 @@
         <v>3</v>
       </c>
       <c r="M126" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N126" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O126" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P126" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q126">
         <v>30</v>
@@ -14846,13 +14845,13 @@
         <v>515</v>
       </c>
       <c r="B127" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C127">
         <v>175</v>
       </c>
       <c r="D127" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E127">
         <v>17</v>
@@ -14879,16 +14878,16 @@
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O127" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P127" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q127">
         <v>40</v>
@@ -14953,13 +14952,13 @@
         <v>517</v>
       </c>
       <c r="B128" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C128">
         <v>175</v>
       </c>
       <c r="D128" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E128">
         <v>17</v>
@@ -14986,16 +14985,16 @@
         <v>2</v>
       </c>
       <c r="M128" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N128" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O128" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P128" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q128">
         <v>25</v>
@@ -15060,13 +15059,13 @@
         <v>518</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C129">
         <v>175</v>
       </c>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E129">
         <v>17</v>
@@ -15093,16 +15092,16 @@
         <v>2</v>
       </c>
       <c r="M129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O129" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P129" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q129">
         <v>25</v>
@@ -15167,13 +15166,13 @@
         <v>520</v>
       </c>
       <c r="B130" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C130">
         <v>175</v>
       </c>
       <c r="D130" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E130">
         <v>17</v>
@@ -15200,16 +15199,16 @@
         <v>2</v>
       </c>
       <c r="M130" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N130" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P130" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q130">
         <v>7.5</v>
@@ -15274,13 +15273,13 @@
         <v>521</v>
       </c>
       <c r="B131" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C131">
         <v>175</v>
       </c>
       <c r="D131" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E131">
         <v>17</v>
@@ -15307,16 +15306,16 @@
         <v>2</v>
       </c>
       <c r="M131" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N131" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P131" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q131">
         <v>25</v>
@@ -15381,13 +15380,13 @@
         <v>524</v>
       </c>
       <c r="B132" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C132">
         <v>174</v>
       </c>
       <c r="D132" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E132">
         <v>17</v>
@@ -15414,16 +15413,16 @@
         <v>2</v>
       </c>
       <c r="M132" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N132" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O132" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P132" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -15488,13 +15487,13 @@
         <v>526</v>
       </c>
       <c r="B133" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C133">
         <v>174</v>
       </c>
       <c r="D133" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E133">
         <v>17</v>
@@ -15521,16 +15520,16 @@
         <v>2</v>
       </c>
       <c r="M133" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N133" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O133" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P133" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q133">
         <v>7.5</v>
@@ -15595,13 +15594,13 @@
         <v>527</v>
       </c>
       <c r="B134" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C134">
         <v>174</v>
       </c>
       <c r="D134" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E134">
         <v>17</v>
@@ -15628,16 +15627,16 @@
         <v>2</v>
       </c>
       <c r="M134" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N134" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O134" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P134" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -15702,13 +15701,13 @@
         <v>529</v>
       </c>
       <c r="B135" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C135">
         <v>174</v>
       </c>
       <c r="D135" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E135">
         <v>17</v>
@@ -15735,16 +15734,16 @@
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N135" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O135" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P135" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q135">
         <v>30</v>
@@ -15809,13 +15808,13 @@
         <v>530</v>
       </c>
       <c r="B136" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C136">
         <v>174</v>
       </c>
       <c r="D136" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E136">
         <v>17</v>
@@ -15842,16 +15841,16 @@
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N136" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O136" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P136" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q136">
         <v>40</v>
@@ -15916,13 +15915,13 @@
         <v>532</v>
       </c>
       <c r="B137" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C137">
         <v>174</v>
       </c>
       <c r="D137" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E137">
         <v>17</v>
@@ -15949,16 +15948,16 @@
         <v>2</v>
       </c>
       <c r="M137" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N137" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O137" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P137" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q137">
         <v>7.5</v>
@@ -16023,13 +16022,13 @@
         <v>535</v>
       </c>
       <c r="B138" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C138">
         <v>103</v>
       </c>
       <c r="D138" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E138">
         <v>10</v>
@@ -16056,16 +16055,16 @@
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N138" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O138" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P138" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q138">
         <v>15</v>
@@ -16130,13 +16129,13 @@
         <v>539</v>
       </c>
       <c r="B139" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C139">
         <v>103</v>
       </c>
       <c r="D139" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E139">
         <v>10</v>
@@ -16163,16 +16162,16 @@
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N139" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O139" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P139" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q139">
         <v>25</v>
@@ -16237,13 +16236,13 @@
         <v>549</v>
       </c>
       <c r="B140" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C140">
         <v>87</v>
       </c>
       <c r="D140" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E140">
         <v>8</v>
@@ -16270,16 +16269,16 @@
         <v>2</v>
       </c>
       <c r="M140" t="s">
+        <v>34</v>
+      </c>
+      <c r="N140" t="s">
+        <v>35</v>
+      </c>
+      <c r="O140" t="s">
+        <v>39</v>
+      </c>
+      <c r="P140" t="s">
         <v>37</v>
-      </c>
-      <c r="N140" t="s">
-        <v>38</v>
-      </c>
-      <c r="O140" t="s">
-        <v>42</v>
-      </c>
-      <c r="P140" t="s">
-        <v>40</v>
       </c>
       <c r="Q140">
         <v>15.13743109</v>
@@ -16344,102 +16343,105 @@
         <v>558</v>
       </c>
       <c r="B141" t="s">
-        <v>119</v>
-      </c>
-      <c r="C141" t="s">
-        <v>49</v>
-      </c>
-      <c r="D141">
+        <v>149</v>
+      </c>
+      <c r="C141">
+        <v>125</v>
+      </c>
+      <c r="D141" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141">
         <v>12</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>-3.7020710000000001</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>40.389426999999998</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>62</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>57</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>3030</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>2</v>
       </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-      <c r="L141" t="s">
-        <v>37</v>
+      <c r="L141">
+        <v>1</v>
       </c>
       <c r="M141" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O141" t="s">
-        <v>43</v>
-      </c>
-      <c r="P141">
+        <v>36</v>
+      </c>
+      <c r="P141" t="s">
         <v>40</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R141">
         <v>0</v>
       </c>
       <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
         <v>0.45</v>
       </c>
-      <c r="T141">
+      <c r="U141">
         <v>0.34</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>0.51</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>0.11</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.34</v>
       </c>
-      <c r="X141">
+      <c r="Y141">
         <v>0.61</v>
       </c>
-      <c r="Y141">
-        <v>0</v>
-      </c>
       <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
         <v>0.76247480199999995</v>
       </c>
-      <c r="AA141">
+      <c r="AB141">
         <v>-3.46781E-3</v>
       </c>
-      <c r="AB141">
+      <c r="AC141">
         <v>-3.660464E-3</v>
       </c>
-      <c r="AC141">
+      <c r="AD141">
         <v>0.15510650500000001</v>
       </c>
-      <c r="AD141">
+      <c r="AE141">
         <v>-0.62836769699999995</v>
       </c>
-      <c r="AE141">
+      <c r="AF141">
         <v>0.34780948299999997</v>
       </c>
-      <c r="AF141">
+      <c r="AG141">
         <v>14.761773229999999</v>
       </c>
-      <c r="AG141">
+      <c r="AH141">
         <v>17.680555850000001</v>
       </c>
-      <c r="AH141">
+      <c r="AI141">
         <v>20.543385109999999</v>
       </c>
     </row>
@@ -16448,102 +16450,105 @@
         <v>560</v>
       </c>
       <c r="B142" t="s">
-        <v>119</v>
-      </c>
-      <c r="C142" t="s">
-        <v>49</v>
-      </c>
-      <c r="D142">
+        <v>149</v>
+      </c>
+      <c r="C142">
+        <v>125</v>
+      </c>
+      <c r="D142" t="s">
+        <v>46</v>
+      </c>
+      <c r="E142">
         <v>12</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>-3.7144135</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>40.388683999999998</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>76</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>68</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>2171</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>2</v>
       </c>
-      <c r="K142">
-        <v>1</v>
-      </c>
-      <c r="L142" t="s">
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142" t="s">
+        <v>34</v>
+      </c>
+      <c r="N142" t="s">
+        <v>35</v>
+      </c>
+      <c r="O142" t="s">
+        <v>36</v>
+      </c>
+      <c r="P142" t="s">
         <v>37</v>
       </c>
-      <c r="M142" t="s">
-        <v>38</v>
-      </c>
-      <c r="N142" t="s">
-        <v>39</v>
-      </c>
-      <c r="O142" t="s">
+      <c r="Q142">
         <v>40</v>
       </c>
-      <c r="P142">
-        <v>40</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
       <c r="R142">
         <v>0</v>
       </c>
       <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
         <v>0.45</v>
       </c>
-      <c r="T142">
+      <c r="U142">
         <v>0.34</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>0.51</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>0.11</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0.34</v>
       </c>
-      <c r="X142">
+      <c r="Y142">
         <v>0.61</v>
       </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
       <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
         <v>0.56387507999999997</v>
       </c>
-      <c r="AA142">
+      <c r="AB142">
         <v>1.2591728E-2</v>
       </c>
-      <c r="AB142">
+      <c r="AC142">
         <v>0.24866574999999999</v>
       </c>
-      <c r="AC142">
+      <c r="AD142">
         <v>0.34204118100000003</v>
       </c>
-      <c r="AD142">
+      <c r="AE142">
         <v>-0.419675719</v>
       </c>
-      <c r="AE142">
+      <c r="AF142">
         <v>9.5313257999999998E-2</v>
       </c>
-      <c r="AF142">
+      <c r="AG142">
         <v>14.761773229999999</v>
       </c>
-      <c r="AG142">
+      <c r="AH142">
         <v>17.680555850000001</v>
       </c>
-      <c r="AH142">
+      <c r="AI142">
         <v>20.543385109999999</v>
       </c>
     </row>
@@ -16552,102 +16557,105 @@
         <v>563</v>
       </c>
       <c r="B143" t="s">
-        <v>119</v>
-      </c>
-      <c r="C143" t="s">
-        <v>49</v>
-      </c>
-      <c r="D143">
+        <v>149</v>
+      </c>
+      <c r="C143">
+        <v>125</v>
+      </c>
+      <c r="D143" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143">
         <v>12</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>-3.7017099999999998</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>40.388238000000001</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>82</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>79</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>3102</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>3</v>
       </c>
-      <c r="K143">
-        <v>1</v>
-      </c>
-      <c r="L143" t="s">
-        <v>37</v>
+      <c r="L143">
+        <v>1</v>
       </c>
       <c r="M143" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N143" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O143" t="s">
-        <v>50</v>
-      </c>
-      <c r="P143">
+        <v>36</v>
+      </c>
+      <c r="P143" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q143">
         <v>30</v>
       </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
       <c r="R143">
         <v>0</v>
       </c>
       <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
         <v>0.45</v>
       </c>
-      <c r="T143">
+      <c r="U143">
         <v>0.34</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>0.51</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>0.11</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0.34</v>
       </c>
-      <c r="X143">
+      <c r="Y143">
         <v>0.61</v>
       </c>
-      <c r="Y143">
-        <v>0</v>
-      </c>
       <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
         <v>0.72014957700000004</v>
       </c>
-      <c r="AA143">
+      <c r="AB143">
         <v>-3.46781E-3</v>
       </c>
-      <c r="AB143">
+      <c r="AC143">
         <v>-3.660464E-3</v>
       </c>
-      <c r="AC143">
+      <c r="AD143">
         <v>0.14179900300000001</v>
       </c>
-      <c r="AD143">
+      <c r="AE143">
         <v>-0.629648243</v>
       </c>
-      <c r="AE143">
+      <c r="AF143">
         <v>0.345648016</v>
       </c>
-      <c r="AF143">
+      <c r="AG143">
         <v>14.761773229999999</v>
       </c>
-      <c r="AG143">
+      <c r="AH143">
         <v>17.680555850000001</v>
       </c>
-      <c r="AH143">
+      <c r="AI143">
         <v>20.543385109999999</v>
       </c>
     </row>
@@ -16656,13 +16664,13 @@
         <v>570</v>
       </c>
       <c r="B144" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C144">
         <v>55</v>
       </c>
       <c r="D144" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E144">
         <v>5</v>
@@ -16689,16 +16697,16 @@
         <v>2</v>
       </c>
       <c r="M144" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N144" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O144" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P144" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q144">
         <v>30</v>
@@ -16763,13 +16771,13 @@
         <v>576</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C145">
         <v>136</v>
       </c>
       <c r="D145" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E145">
         <v>13</v>
@@ -16796,16 +16804,16 @@
         <v>1</v>
       </c>
       <c r="M145" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N145" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O145" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q145">
         <v>30</v>
@@ -16870,13 +16878,13 @@
         <v>577</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C146">
         <v>136</v>
       </c>
       <c r="D146" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E146">
         <v>13</v>
@@ -16903,16 +16911,16 @@
         <v>1</v>
       </c>
       <c r="M146" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O146" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q146">
         <v>30</v>
@@ -16977,13 +16985,13 @@
         <v>578</v>
       </c>
       <c r="B147" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C147">
         <v>136</v>
       </c>
       <c r="D147" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E147">
         <v>13</v>
@@ -17010,16 +17018,16 @@
         <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N147" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O147" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P147" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q147">
         <v>40</v>
@@ -17084,13 +17092,13 @@
         <v>580</v>
       </c>
       <c r="B148" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C148">
         <v>136</v>
       </c>
       <c r="D148" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E148">
         <v>13</v>
@@ -17117,16 +17125,16 @@
         <v>2</v>
       </c>
       <c r="M148" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N148" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O148" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P148" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Q148">
         <v>15</v>
@@ -17191,13 +17199,13 @@
         <v>583</v>
       </c>
       <c r="B149" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C149">
         <v>136</v>
       </c>
       <c r="D149" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E149">
         <v>13</v>
@@ -17224,16 +17232,16 @@
         <v>1</v>
       </c>
       <c r="M149" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N149" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O149" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P149" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q149">
         <v>30</v>
@@ -17298,13 +17306,13 @@
         <v>584</v>
       </c>
       <c r="B150" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C150">
         <v>136</v>
       </c>
       <c r="D150" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E150">
         <v>13</v>
@@ -17331,16 +17339,16 @@
         <v>1</v>
       </c>
       <c r="M150" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N150" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O150" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P150" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q150">
         <v>40</v>
@@ -17405,13 +17413,13 @@
         <v>587</v>
       </c>
       <c r="B151" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C151">
         <v>112</v>
       </c>
       <c r="D151" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E151">
         <v>11</v>
@@ -17438,16 +17446,16 @@
         <v>1</v>
       </c>
       <c r="M151" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N151" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P151" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -17512,13 +17520,13 @@
         <v>589</v>
       </c>
       <c r="B152" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C152">
         <v>112</v>
       </c>
       <c r="D152" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E152">
         <v>11</v>
@@ -17545,16 +17553,16 @@
         <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N152" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O152" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q152">
         <v>15</v>
@@ -17619,13 +17627,13 @@
         <v>591</v>
       </c>
       <c r="B153" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C153">
         <v>112</v>
       </c>
       <c r="D153" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E153">
         <v>11</v>
@@ -17652,16 +17660,16 @@
         <v>2</v>
       </c>
       <c r="M153" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N153" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O153" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -17726,13 +17734,13 @@
         <v>593</v>
       </c>
       <c r="B154" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C154">
         <v>121</v>
       </c>
       <c r="D154" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E154">
         <v>12</v>
@@ -17759,16 +17767,16 @@
         <v>1</v>
       </c>
       <c r="M154" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N154" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O154" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q154">
         <v>31.23797789</v>
@@ -17833,13 +17841,13 @@
         <v>594</v>
       </c>
       <c r="B155" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C155">
         <v>121</v>
       </c>
       <c r="D155" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E155">
         <v>12</v>
@@ -17866,16 +17874,16 @@
         <v>2</v>
       </c>
       <c r="M155" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N155" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O155" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P155" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -17940,13 +17948,13 @@
         <v>597</v>
       </c>
       <c r="B156" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C156">
         <v>31</v>
       </c>
       <c r="D156" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E156">
         <v>3</v>
@@ -17973,16 +17981,16 @@
         <v>1</v>
       </c>
       <c r="M156" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N156" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O156" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P156" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q156">
         <v>40</v>
@@ -18047,13 +18055,13 @@
         <v>605</v>
       </c>
       <c r="B157" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C157">
         <v>31</v>
       </c>
       <c r="D157" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E157">
         <v>3</v>
@@ -18080,16 +18088,16 @@
         <v>2</v>
       </c>
       <c r="M157" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N157" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P157" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q157">
         <v>30</v>
@@ -18154,13 +18162,13 @@
         <v>606</v>
       </c>
       <c r="B158" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C158">
         <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -18187,16 +18195,16 @@
         <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N158" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O158" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P158" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q158">
         <v>30</v>
@@ -18261,13 +18269,13 @@
         <v>612</v>
       </c>
       <c r="B159" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C159">
         <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -18294,16 +18302,16 @@
         <v>2</v>
       </c>
       <c r="M159" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N159" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O159" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P159" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -18368,13 +18376,13 @@
         <v>615</v>
       </c>
       <c r="B160" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C160">
         <v>161</v>
       </c>
       <c r="D160" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E160">
         <v>16</v>
@@ -18401,16 +18409,16 @@
         <v>2</v>
       </c>
       <c r="M160" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N160" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O160" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P160" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q160">
         <v>4</v>
@@ -18475,13 +18483,13 @@
         <v>618</v>
       </c>
       <c r="B161" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C161">
         <v>133</v>
       </c>
       <c r="D161" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E161">
         <v>13</v>
@@ -18508,16 +18516,16 @@
         <v>1</v>
       </c>
       <c r="M161" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N161" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O161" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P161" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -18582,13 +18590,13 @@
         <v>624</v>
       </c>
       <c r="B162" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C162">
         <v>133</v>
       </c>
       <c r="D162" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E162">
         <v>13</v>
@@ -18615,16 +18623,16 @@
         <v>1</v>
       </c>
       <c r="M162" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N162" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O162" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P162" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q162">
         <v>30</v>
@@ -18689,13 +18697,13 @@
         <v>625</v>
       </c>
       <c r="B163" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C163">
         <v>133</v>
       </c>
       <c r="D163" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E163">
         <v>13</v>
@@ -18722,16 +18730,16 @@
         <v>2</v>
       </c>
       <c r="M163" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N163" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O163" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P163" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q163">
         <v>5</v>
@@ -18796,13 +18804,13 @@
         <v>636</v>
       </c>
       <c r="B164" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C164">
         <v>141</v>
       </c>
       <c r="D164" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E164">
         <v>14</v>
@@ -18829,16 +18837,16 @@
         <v>1</v>
       </c>
       <c r="M164" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N164" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O164" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P164" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q164">
         <v>32.375219979999997</v>
@@ -18903,13 +18911,13 @@
         <v>638</v>
       </c>
       <c r="B165" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C165">
         <v>141</v>
       </c>
       <c r="D165" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E165">
         <v>14</v>
@@ -18936,16 +18944,16 @@
         <v>2</v>
       </c>
       <c r="M165" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N165" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O165" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P165" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q165">
         <v>19.272808600000001</v>
@@ -19010,13 +19018,13 @@
         <v>643</v>
       </c>
       <c r="B166" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C166">
         <v>83</v>
       </c>
       <c r="D166" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E166">
         <v>8</v>
@@ -19043,16 +19051,16 @@
         <v>5</v>
       </c>
       <c r="M166" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N166" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O166" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P166" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q166">
         <v>15</v>
@@ -19117,13 +19125,13 @@
         <v>645</v>
       </c>
       <c r="B167" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C167">
         <v>84</v>
       </c>
       <c r="D167" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E167">
         <v>8</v>
@@ -19150,16 +19158,16 @@
         <v>1</v>
       </c>
       <c r="M167" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N167" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O167" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P167" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q167">
         <v>29.420422599999998</v>
@@ -19224,13 +19232,13 @@
         <v>650</v>
       </c>
       <c r="B168" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C168">
         <v>84</v>
       </c>
       <c r="D168" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E168">
         <v>8</v>
@@ -19257,16 +19265,16 @@
         <v>3</v>
       </c>
       <c r="M168" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N168" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O168" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P168" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q168">
         <v>25.514665260000001</v>
@@ -19331,13 +19339,13 @@
         <v>651</v>
       </c>
       <c r="B169" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C169">
         <v>164</v>
       </c>
       <c r="D169" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E169">
         <v>16</v>
@@ -19364,16 +19372,16 @@
         <v>1</v>
       </c>
       <c r="M169" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N169" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O169" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P169" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q169">
         <v>12.35052885</v>
@@ -19438,13 +19446,13 @@
         <v>655</v>
       </c>
       <c r="B170" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C170">
         <v>162</v>
       </c>
       <c r="D170" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E170">
         <v>16</v>
@@ -19471,16 +19479,16 @@
         <v>1</v>
       </c>
       <c r="M170" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N170" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O170" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P170" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q170">
         <v>0</v>
@@ -19545,13 +19553,13 @@
         <v>658</v>
       </c>
       <c r="B171" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C171">
         <v>162</v>
       </c>
       <c r="D171" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E171">
         <v>16</v>
@@ -19578,16 +19586,16 @@
         <v>7</v>
       </c>
       <c r="M171" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N171" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O171" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P171" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q171">
         <v>15</v>
@@ -19652,13 +19660,13 @@
         <v>660</v>
       </c>
       <c r="B172" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C172">
         <v>135</v>
       </c>
       <c r="D172" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E172">
         <v>13</v>
@@ -19685,16 +19693,16 @@
         <v>1</v>
       </c>
       <c r="M172" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N172" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O172" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P172" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q172">
         <v>15.67825749</v>
@@ -19759,13 +19767,13 @@
         <v>663</v>
       </c>
       <c r="B173" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C173">
         <v>135</v>
       </c>
       <c r="D173" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E173">
         <v>13</v>
@@ -19792,16 +19800,16 @@
         <v>1</v>
       </c>
       <c r="M173" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N173" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O173" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P173" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q173">
         <v>30</v>
@@ -19866,13 +19874,13 @@
         <v>665</v>
       </c>
       <c r="B174" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C174">
         <v>135</v>
       </c>
       <c r="D174" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E174">
         <v>13</v>
@@ -19899,16 +19907,16 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N174" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O174" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P174" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q174">
         <v>25</v>
@@ -19973,13 +19981,13 @@
         <v>669</v>
       </c>
       <c r="B175" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C175">
         <v>127</v>
       </c>
       <c r="D175" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E175">
         <v>12</v>
@@ -20006,16 +20014,16 @@
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N175" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O175" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P175" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q175">
         <v>10</v>
@@ -20080,13 +20088,13 @@
         <v>670</v>
       </c>
       <c r="B176" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C176">
         <v>127</v>
       </c>
       <c r="D176" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E176">
         <v>12</v>
@@ -20113,16 +20121,16 @@
         <v>1</v>
       </c>
       <c r="M176" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N176" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O176" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P176" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q176">
         <v>30</v>
@@ -20187,13 +20195,13 @@
         <v>675</v>
       </c>
       <c r="B177" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C177">
         <v>127</v>
       </c>
       <c r="D177" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E177">
         <v>12</v>
@@ -20220,16 +20228,16 @@
         <v>1</v>
       </c>
       <c r="M177" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N177" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O177" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P177" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q177">
         <v>20</v>
@@ -20294,13 +20302,13 @@
         <v>689</v>
       </c>
       <c r="B178" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C178">
         <v>52</v>
       </c>
       <c r="D178" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E178">
         <v>5</v>
@@ -20327,16 +20335,16 @@
         <v>1</v>
       </c>
       <c r="M178" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N178" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O178" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P178" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q178">
         <v>26.677135979999999</v>
@@ -20401,13 +20409,13 @@
         <v>699</v>
       </c>
       <c r="B179" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C179">
         <v>152</v>
       </c>
       <c r="D179" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E179">
         <v>15</v>
@@ -20434,16 +20442,16 @@
         <v>1</v>
       </c>
       <c r="M179" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N179" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O179" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P179" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q179">
         <v>0</v>
@@ -20508,13 +20516,13 @@
         <v>702</v>
       </c>
       <c r="B180" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C180">
         <v>152</v>
       </c>
       <c r="D180" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E180">
         <v>15</v>
@@ -20541,16 +20549,16 @@
         <v>1</v>
       </c>
       <c r="M180" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N180" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O180" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P180" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Q180">
         <v>22.720824060000002</v>
@@ -20615,13 +20623,13 @@
         <v>704</v>
       </c>
       <c r="B181" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C181">
         <v>152</v>
       </c>
       <c r="D181" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E181">
         <v>15</v>
@@ -20648,16 +20656,16 @@
         <v>1</v>
       </c>
       <c r="M181" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N181" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O181" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P181" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q181">
         <v>15</v>
@@ -20722,13 +20730,13 @@
         <v>706</v>
       </c>
       <c r="B182" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C182">
         <v>152</v>
       </c>
       <c r="D182" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E182">
         <v>15</v>
@@ -20755,16 +20763,16 @@
         <v>2</v>
       </c>
       <c r="M182" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N182" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O182" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P182" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -20829,13 +20837,13 @@
         <v>711</v>
       </c>
       <c r="B183" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C183">
         <v>152</v>
       </c>
       <c r="D183" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E183">
         <v>15</v>
@@ -20862,16 +20870,16 @@
         <v>2</v>
       </c>
       <c r="M183" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N183" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O183" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P183" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q183">
         <v>30</v>
@@ -20936,13 +20944,13 @@
         <v>712</v>
       </c>
       <c r="B184" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C184">
         <v>152</v>
       </c>
       <c r="D184" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E184">
         <v>15</v>
@@ -20969,16 +20977,16 @@
         <v>2</v>
       </c>
       <c r="M184" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N184" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O184" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P184" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q184">
         <v>25</v>
@@ -21043,13 +21051,13 @@
         <v>713</v>
       </c>
       <c r="B185" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C185">
         <v>152</v>
       </c>
       <c r="D185" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E185">
         <v>15</v>
@@ -21076,16 +21084,16 @@
         <v>2</v>
       </c>
       <c r="M185" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O185" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P185" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q185">
         <v>30</v>
@@ -21150,13 +21158,13 @@
         <v>714</v>
       </c>
       <c r="B186" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C186">
         <v>152</v>
       </c>
       <c r="D186" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E186">
         <v>15</v>
@@ -21183,16 +21191,16 @@
         <v>1</v>
       </c>
       <c r="M186" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N186" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O186" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P186" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Q186">
         <v>40</v>
@@ -21257,13 +21265,13 @@
         <v>718</v>
       </c>
       <c r="B187" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C187">
         <v>115</v>
       </c>
       <c r="D187" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E187">
         <v>11</v>
@@ -21290,16 +21298,16 @@
         <v>2</v>
       </c>
       <c r="M187" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N187" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O187" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P187" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q187">
         <v>7.5</v>
@@ -21364,13 +21372,13 @@
         <v>724</v>
       </c>
       <c r="B188" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C188">
         <v>102</v>
       </c>
       <c r="D188" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E188">
         <v>10</v>
@@ -21397,16 +21405,16 @@
         <v>1</v>
       </c>
       <c r="M188" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N188" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O188" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P188" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q188">
         <v>15</v>
@@ -21471,13 +21479,13 @@
         <v>726</v>
       </c>
       <c r="B189" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C189">
         <v>102</v>
       </c>
       <c r="D189" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E189">
         <v>10</v>
@@ -21504,16 +21512,16 @@
         <v>1</v>
       </c>
       <c r="M189" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N189" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O189" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P189" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q189">
         <v>33.700048420000002</v>
@@ -21578,13 +21586,13 @@
         <v>735</v>
       </c>
       <c r="B190" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C190">
         <v>153</v>
       </c>
       <c r="D190" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E190">
         <v>15</v>
@@ -21611,16 +21619,16 @@
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N190" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O190" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P190" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q190">
         <v>25</v>
@@ -21685,13 +21693,13 @@
         <v>740</v>
       </c>
       <c r="B191" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C191">
         <v>41</v>
       </c>
       <c r="D191" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E191">
         <v>4</v>
@@ -21718,16 +21726,16 @@
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N191" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O191" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P191" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q191">
         <v>24.93383906</v>
@@ -21792,13 +21800,13 @@
         <v>741</v>
       </c>
       <c r="B192" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C192">
         <v>41</v>
       </c>
       <c r="D192" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E192">
         <v>4</v>
@@ -21825,16 +21833,16 @@
         <v>2</v>
       </c>
       <c r="M192" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N192" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O192" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P192" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q192">
         <v>23.158002589999999</v>
@@ -21899,13 +21907,13 @@
         <v>744</v>
       </c>
       <c r="B193" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C193">
         <v>41</v>
       </c>
       <c r="D193" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E193">
         <v>4</v>
@@ -21932,16 +21940,16 @@
         <v>2</v>
       </c>
       <c r="M193" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N193" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O193" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P193" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q193">
         <v>31.10967475</v>
@@ -22006,13 +22014,13 @@
         <v>745</v>
       </c>
       <c r="B194" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C194">
         <v>41</v>
       </c>
       <c r="D194" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E194">
         <v>4</v>
@@ -22039,16 +22047,16 @@
         <v>2</v>
       </c>
       <c r="M194" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N194" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O194" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P194" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -22113,13 +22121,13 @@
         <v>750</v>
       </c>
       <c r="B195" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C195">
         <v>206</v>
       </c>
       <c r="D195" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E195">
         <v>20</v>
@@ -22146,16 +22154,16 @@
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N195" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O195" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P195" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q195">
         <v>40</v>
@@ -22220,13 +22228,13 @@
         <v>757</v>
       </c>
       <c r="B196" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C196">
         <v>205</v>
       </c>
       <c r="D196" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E196">
         <v>20</v>
@@ -22253,16 +22261,16 @@
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N196" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O196" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P196" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -22327,13 +22335,13 @@
         <v>758</v>
       </c>
       <c r="B197" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C197">
         <v>205</v>
       </c>
       <c r="D197" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E197">
         <v>20</v>
@@ -22360,16 +22368,16 @@
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N197" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O197" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P197" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q197">
         <v>29.719975439999999</v>
@@ -22434,13 +22442,13 @@
         <v>759</v>
       </c>
       <c r="B198" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C198">
         <v>205</v>
       </c>
       <c r="D198" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E198">
         <v>20</v>
@@ -22467,16 +22475,16 @@
         <v>2</v>
       </c>
       <c r="M198" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N198" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O198" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P198" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q198">
         <v>10</v>
@@ -22541,13 +22549,13 @@
         <v>762</v>
       </c>
       <c r="B199" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C199">
         <v>123</v>
       </c>
       <c r="D199" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E199">
         <v>20</v>
@@ -22574,16 +22582,16 @@
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N199" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O199" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P199" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q199">
         <v>33.430287939999999</v>
@@ -22648,13 +22656,13 @@
         <v>768</v>
       </c>
       <c r="B200" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C200">
         <v>132</v>
       </c>
       <c r="D200" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E200">
         <v>13</v>
@@ -22681,16 +22689,16 @@
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N200" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O200" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P200" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Q200">
         <v>40</v>
@@ -22755,13 +22763,13 @@
         <v>769</v>
       </c>
       <c r="B201" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C201">
         <v>132</v>
       </c>
       <c r="D201" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E201">
         <v>13</v>
@@ -22788,16 +22796,16 @@
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N201" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O201" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P201" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="Q201">
         <v>26.998920559999998</v>
@@ -22862,13 +22870,13 @@
         <v>770</v>
       </c>
       <c r="B202" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C202">
         <v>132</v>
       </c>
       <c r="D202" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E202">
         <v>13</v>
@@ -22895,16 +22903,16 @@
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N202" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O202" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P202" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q202">
         <v>10</v>
@@ -22969,13 +22977,13 @@
         <v>776</v>
       </c>
       <c r="B203" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C203">
         <v>132</v>
       </c>
       <c r="D203" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E203">
         <v>13</v>
@@ -23002,16 +23010,16 @@
         <v>1</v>
       </c>
       <c r="M203" t="s">
+        <v>34</v>
+      </c>
+      <c r="N203" t="s">
+        <v>35</v>
+      </c>
+      <c r="O203" t="s">
+        <v>36</v>
+      </c>
+      <c r="P203" t="s">
         <v>37</v>
-      </c>
-      <c r="N203" t="s">
-        <v>38</v>
-      </c>
-      <c r="O203" t="s">
-        <v>39</v>
-      </c>
-      <c r="P203" t="s">
-        <v>40</v>
       </c>
       <c r="Q203">
         <v>35</v>
@@ -23076,13 +23084,13 @@
         <v>777</v>
       </c>
       <c r="B204" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C204">
         <v>132</v>
       </c>
       <c r="D204" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E204">
         <v>13</v>
@@ -23109,16 +23117,16 @@
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N204" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O204" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P204" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q204">
         <v>25</v>
@@ -23183,13 +23191,13 @@
         <v>797</v>
       </c>
       <c r="B205" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C205">
         <v>113</v>
       </c>
       <c r="D205" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E205">
         <v>11</v>
@@ -23216,16 +23224,16 @@
         <v>1</v>
       </c>
       <c r="M205" t="s">
+        <v>34</v>
+      </c>
+      <c r="N205" t="s">
+        <v>35</v>
+      </c>
+      <c r="O205" t="s">
+        <v>39</v>
+      </c>
+      <c r="P205" t="s">
         <v>37</v>
-      </c>
-      <c r="N205" t="s">
-        <v>38</v>
-      </c>
-      <c r="O205" t="s">
-        <v>42</v>
-      </c>
-      <c r="P205" t="s">
-        <v>40</v>
       </c>
       <c r="Q205">
         <v>26.049564069999999</v>
@@ -23290,13 +23298,13 @@
         <v>798</v>
       </c>
       <c r="B206" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C206">
         <v>113</v>
       </c>
       <c r="D206" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E206">
         <v>11</v>
@@ -23323,16 +23331,16 @@
         <v>1</v>
       </c>
       <c r="M206" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N206" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O206" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P206" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q206">
         <v>30</v>
@@ -23397,13 +23405,13 @@
         <v>809</v>
       </c>
       <c r="B207" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C207">
         <v>156</v>
       </c>
       <c r="D207" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E207">
         <v>15</v>
@@ -23430,16 +23438,16 @@
         <v>2</v>
       </c>
       <c r="M207" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N207" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O207" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P207" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q207">
         <v>15</v>
@@ -23504,13 +23512,13 @@
         <v>810</v>
       </c>
       <c r="B208" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C208">
         <v>155</v>
       </c>
       <c r="D208" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E208">
         <v>15</v>
@@ -23537,16 +23545,16 @@
         <v>2</v>
       </c>
       <c r="M208" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N208" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O208" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P208" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q208">
         <v>11.82636742</v>
@@ -23611,13 +23619,13 @@
         <v>822</v>
       </c>
       <c r="B209" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C209">
         <v>201</v>
       </c>
       <c r="D209" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E209">
         <v>20</v>
@@ -23644,16 +23652,16 @@
         <v>2</v>
       </c>
       <c r="M209" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N209" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O209" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P209" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q209">
         <v>20.120674879999999</v>
@@ -23718,13 +23726,13 @@
         <v>828</v>
       </c>
       <c r="B210" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C210">
         <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -23751,16 +23759,16 @@
         <v>2</v>
       </c>
       <c r="M210" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N210" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O210" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P210" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q210">
         <v>30</v>
@@ -23825,13 +23833,13 @@
         <v>830</v>
       </c>
       <c r="B211" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C211">
         <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -23858,16 +23866,16 @@
         <v>2</v>
       </c>
       <c r="M211" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N211" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O211" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P211" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q211">
         <v>30</v>
@@ -23932,13 +23940,13 @@
         <v>831</v>
       </c>
       <c r="B212" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C212">
         <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -23965,16 +23973,16 @@
         <v>2</v>
       </c>
       <c r="M212" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N212" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O212" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P212" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Q212">
         <v>30</v>
@@ -24039,13 +24047,13 @@
         <v>832</v>
       </c>
       <c r="B213" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C213">
         <v>214</v>
       </c>
       <c r="D213" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E213">
         <v>21</v>
@@ -24072,16 +24080,16 @@
         <v>1</v>
       </c>
       <c r="M213" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N213" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O213" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P213" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q213">
         <v>25</v>
@@ -24146,13 +24154,13 @@
         <v>834</v>
       </c>
       <c r="B214" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C214">
         <v>214</v>
       </c>
       <c r="D214" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E214">
         <v>21</v>
@@ -24179,16 +24187,16 @@
         <v>2</v>
       </c>
       <c r="M214" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N214" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O214" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P214" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q214">
         <v>16.179704409999999</v>
@@ -24253,13 +24261,13 @@
         <v>841</v>
       </c>
       <c r="B215" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C215">
         <v>73</v>
       </c>
       <c r="D215" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E215">
         <v>7</v>
@@ -24286,16 +24294,16 @@
         <v>1</v>
       </c>
       <c r="M215" t="s">
+        <v>34</v>
+      </c>
+      <c r="N215" t="s">
+        <v>35</v>
+      </c>
+      <c r="O215" t="s">
+        <v>39</v>
+      </c>
+      <c r="P215" t="s">
         <v>37</v>
-      </c>
-      <c r="N215" t="s">
-        <v>38</v>
-      </c>
-      <c r="O215" t="s">
-        <v>42</v>
-      </c>
-      <c r="P215" t="s">
-        <v>40</v>
       </c>
       <c r="Q215">
         <v>30</v>
@@ -24360,13 +24368,13 @@
         <v>844</v>
       </c>
       <c r="B216" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C216">
         <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -24393,16 +24401,16 @@
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N216" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O216" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P216" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q216">
         <v>0</v>
@@ -24467,13 +24475,13 @@
         <v>850</v>
       </c>
       <c r="B217" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C217">
         <v>15</v>
       </c>
       <c r="D217" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -24500,16 +24508,16 @@
         <v>1</v>
       </c>
       <c r="M217" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N217" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O217" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P217" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q217">
         <v>7.5</v>
@@ -24574,13 +24582,13 @@
         <v>865</v>
       </c>
       <c r="B218" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C218">
         <v>65</v>
       </c>
       <c r="D218" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E218">
         <v>6</v>
@@ -24607,16 +24615,16 @@
         <v>1</v>
       </c>
       <c r="M218" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N218" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O218" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P218" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q218">
         <v>0</v>
@@ -24681,13 +24689,13 @@
         <v>866</v>
       </c>
       <c r="B219" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C219">
         <v>65</v>
       </c>
       <c r="D219" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E219">
         <v>6</v>
@@ -24714,16 +24722,16 @@
         <v>1</v>
       </c>
       <c r="M219" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N219" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O219" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P219" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q219">
         <v>22.522229230000001</v>
@@ -24788,13 +24796,13 @@
         <v>867</v>
       </c>
       <c r="B220" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C220">
         <v>65</v>
       </c>
       <c r="D220" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -24821,16 +24829,16 @@
         <v>1</v>
       </c>
       <c r="M220" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N220" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O220" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P220" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q220">
         <v>15</v>
@@ -24895,13 +24903,13 @@
         <v>868</v>
       </c>
       <c r="B221" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C221">
         <v>65</v>
       </c>
       <c r="D221" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E221">
         <v>6</v>
@@ -24928,16 +24936,16 @@
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N221" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O221" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P221" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q221">
         <v>20</v>
@@ -25002,13 +25010,13 @@
         <v>869</v>
       </c>
       <c r="B222" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C222">
         <v>65</v>
       </c>
       <c r="D222" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E222">
         <v>6</v>
@@ -25035,16 +25043,16 @@
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N222" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O222" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P222" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q222">
         <v>16.750771889999999</v>
@@ -25109,13 +25117,13 @@
         <v>878</v>
       </c>
       <c r="B223" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C223">
         <v>65</v>
       </c>
       <c r="D223" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E223">
         <v>6</v>
@@ -25142,16 +25150,16 @@
         <v>1</v>
       </c>
       <c r="M223" t="s">
+        <v>34</v>
+      </c>
+      <c r="N223" t="s">
+        <v>35</v>
+      </c>
+      <c r="O223" t="s">
+        <v>39</v>
+      </c>
+      <c r="P223" t="s">
         <v>37</v>
-      </c>
-      <c r="N223" t="s">
-        <v>38</v>
-      </c>
-      <c r="O223" t="s">
-        <v>42</v>
-      </c>
-      <c r="P223" t="s">
-        <v>40</v>
       </c>
       <c r="Q223">
         <v>30</v>
@@ -25216,13 +25224,13 @@
         <v>879</v>
       </c>
       <c r="B224" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C224">
         <v>65</v>
       </c>
       <c r="D224" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E224">
         <v>6</v>
@@ -25249,16 +25257,16 @@
         <v>1</v>
       </c>
       <c r="M224" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N224" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O224" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P224" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q224">
         <v>30</v>
@@ -25323,13 +25331,13 @@
         <v>880</v>
       </c>
       <c r="B225" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C225">
         <v>166</v>
       </c>
       <c r="D225" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E225">
         <v>16</v>
@@ -25356,16 +25364,16 @@
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N225" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O225" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P225" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q225">
         <v>3.5562414979999999</v>
@@ -25430,13 +25438,13 @@
         <v>883</v>
       </c>
       <c r="B226" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C226">
         <v>166</v>
       </c>
       <c r="D226" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E226">
         <v>16</v>
@@ -25463,16 +25471,16 @@
         <v>1</v>
       </c>
       <c r="M226" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N226" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O226" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P226" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q226">
         <v>2.5</v>
@@ -25537,13 +25545,13 @@
         <v>886</v>
       </c>
       <c r="B227" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C227">
         <v>166</v>
       </c>
       <c r="D227" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E227">
         <v>16</v>
@@ -25570,16 +25578,16 @@
         <v>2</v>
       </c>
       <c r="M227" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N227" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O227" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P227" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q227">
         <v>2.5</v>
@@ -25644,13 +25652,13 @@
         <v>896</v>
       </c>
       <c r="B228" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C228">
         <v>94</v>
       </c>
       <c r="D228" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E228">
         <v>9</v>
@@ -25677,16 +25685,16 @@
         <v>1</v>
       </c>
       <c r="M228" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N228" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O228" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P228" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q228">
         <v>30</v>
@@ -25751,13 +25759,13 @@
         <v>900</v>
       </c>
       <c r="B229" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C229">
         <v>76</v>
       </c>
       <c r="D229" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E229">
         <v>7</v>
@@ -25784,16 +25792,16 @@
         <v>2</v>
       </c>
       <c r="M229" t="s">
+        <v>34</v>
+      </c>
+      <c r="N229" t="s">
+        <v>35</v>
+      </c>
+      <c r="O229" t="s">
+        <v>39</v>
+      </c>
+      <c r="P229" t="s">
         <v>37</v>
-      </c>
-      <c r="N229" t="s">
-        <v>38</v>
-      </c>
-      <c r="O229" t="s">
-        <v>42</v>
-      </c>
-      <c r="P229" t="s">
-        <v>40</v>
       </c>
       <c r="Q229">
         <v>30</v>
@@ -25858,13 +25866,13 @@
         <v>909</v>
       </c>
       <c r="B230" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C230">
         <v>86</v>
       </c>
       <c r="D230" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E230">
         <v>8</v>
@@ -25891,16 +25899,16 @@
         <v>2</v>
       </c>
       <c r="M230" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N230" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O230" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P230" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q230">
         <v>7.5</v>
@@ -25965,13 +25973,13 @@
         <v>911</v>
       </c>
       <c r="B231" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C231">
         <v>86</v>
       </c>
       <c r="D231" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E231">
         <v>8</v>
@@ -25998,16 +26006,16 @@
         <v>2</v>
       </c>
       <c r="M231" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N231" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O231" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P231" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q231">
         <v>7.5</v>
@@ -26072,13 +26080,13 @@
         <v>918</v>
       </c>
       <c r="B232" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C232">
         <v>86</v>
       </c>
       <c r="D232" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E232">
         <v>8</v>
@@ -26105,16 +26113,16 @@
         <v>1</v>
       </c>
       <c r="M232" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N232" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O232" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P232" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q232">
         <v>40</v>
@@ -26179,13 +26187,13 @@
         <v>921</v>
       </c>
       <c r="B233" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C233">
         <v>86</v>
       </c>
       <c r="D233" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E233">
         <v>8</v>
@@ -26212,16 +26220,16 @@
         <v>1</v>
       </c>
       <c r="M233" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N233" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O233" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P233" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q233">
         <v>40</v>
@@ -26286,13 +26294,13 @@
         <v>925</v>
       </c>
       <c r="B234" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C234">
         <v>151</v>
       </c>
       <c r="D234" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E234">
         <v>15</v>
@@ -26319,16 +26327,16 @@
         <v>1</v>
       </c>
       <c r="M234" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N234" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O234" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P234" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q234">
         <v>25</v>
@@ -26393,13 +26401,13 @@
         <v>928</v>
       </c>
       <c r="B235" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C235">
         <v>151</v>
       </c>
       <c r="D235" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E235">
         <v>15</v>
@@ -26426,16 +26434,16 @@
         <v>1</v>
       </c>
       <c r="M235" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N235" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O235" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P235" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q235">
         <v>30</v>
@@ -26500,13 +26508,13 @@
         <v>933</v>
       </c>
       <c r="B236" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C236">
         <v>151</v>
       </c>
       <c r="D236" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E236">
         <v>15</v>
@@ -26533,16 +26541,16 @@
         <v>1</v>
       </c>
       <c r="M236" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N236" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O236" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P236" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q236">
         <v>0</v>
@@ -26607,13 +26615,13 @@
         <v>936</v>
       </c>
       <c r="B237" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C237">
         <v>151</v>
       </c>
       <c r="D237" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E237">
         <v>15</v>
@@ -26640,16 +26648,16 @@
         <v>1</v>
       </c>
       <c r="M237" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N237" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O237" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P237" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q237">
         <v>0</v>
@@ -26714,13 +26722,13 @@
         <v>941</v>
       </c>
       <c r="B238" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C238">
         <v>151</v>
       </c>
       <c r="D238" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E238">
         <v>15</v>
@@ -26747,16 +26755,16 @@
         <v>2</v>
       </c>
       <c r="M238" t="s">
+        <v>34</v>
+      </c>
+      <c r="N238" t="s">
+        <v>35</v>
+      </c>
+      <c r="O238" t="s">
+        <v>39</v>
+      </c>
+      <c r="P238" t="s">
         <v>37</v>
-      </c>
-      <c r="N238" t="s">
-        <v>38</v>
-      </c>
-      <c r="O238" t="s">
-        <v>42</v>
-      </c>
-      <c r="P238" t="s">
-        <v>40</v>
       </c>
       <c r="Q238">
         <v>27.93496416</v>
@@ -26821,13 +26829,13 @@
         <v>942</v>
       </c>
       <c r="B239" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C239">
         <v>151</v>
       </c>
       <c r="D239" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E239">
         <v>15</v>
@@ -26854,16 +26862,16 @@
         <v>2</v>
       </c>
       <c r="M239" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N239" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O239" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P239" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q239">
         <v>22.757285639999999</v>
@@ -26928,13 +26936,13 @@
         <v>955</v>
       </c>
       <c r="B240" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C240">
         <v>171</v>
       </c>
       <c r="D240" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E240">
         <v>17</v>
@@ -26961,16 +26969,16 @@
         <v>1</v>
       </c>
       <c r="M240" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N240" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O240" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P240" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q240">
         <v>25</v>
@@ -27035,13 +27043,13 @@
         <v>957</v>
       </c>
       <c r="B241" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C241">
         <v>171</v>
       </c>
       <c r="D241" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E241">
         <v>17</v>
@@ -27068,16 +27076,16 @@
         <v>2</v>
       </c>
       <c r="M241" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N241" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O241" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P241" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q241">
         <v>0</v>
@@ -27142,13 +27150,13 @@
         <v>963</v>
       </c>
       <c r="B242" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C242">
         <v>171</v>
       </c>
       <c r="D242" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E242">
         <v>17</v>
@@ -27175,16 +27183,16 @@
         <v>2</v>
       </c>
       <c r="M242" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N242" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O242" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P242" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q242">
         <v>20</v>
@@ -27249,13 +27257,13 @@
         <v>968</v>
       </c>
       <c r="B243" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C243">
         <v>146</v>
       </c>
       <c r="D243" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E243">
         <v>14</v>
@@ -27282,16 +27290,16 @@
         <v>2</v>
       </c>
       <c r="M243" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N243" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O243" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P243" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q243">
         <v>40</v>
@@ -27356,13 +27364,13 @@
         <v>971</v>
       </c>
       <c r="B244" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C244">
         <v>114</v>
       </c>
       <c r="D244" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E244">
         <v>11</v>
@@ -27389,16 +27397,16 @@
         <v>1</v>
       </c>
       <c r="M244" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N244" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O244" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P244" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q244">
         <v>25</v>
@@ -27463,13 +27471,13 @@
         <v>972</v>
       </c>
       <c r="B245" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C245">
         <v>114</v>
       </c>
       <c r="D245" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E245">
         <v>11</v>
@@ -27496,16 +27504,16 @@
         <v>1</v>
       </c>
       <c r="M245" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N245" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O245" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P245" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q245">
         <v>30</v>
@@ -27570,13 +27578,13 @@
         <v>980</v>
       </c>
       <c r="B246" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C246">
         <v>126</v>
       </c>
       <c r="D246" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E246">
         <v>12</v>
@@ -27603,16 +27611,16 @@
         <v>1</v>
       </c>
       <c r="M246" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N246" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O246" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P246" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q246">
         <v>30</v>
@@ -27677,13 +27685,13 @@
         <v>981</v>
       </c>
       <c r="B247" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C247">
         <v>126</v>
       </c>
       <c r="D247" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E247">
         <v>12</v>
@@ -27710,16 +27718,16 @@
         <v>2</v>
       </c>
       <c r="M247" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N247" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O247" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P247" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q247">
         <v>15</v>
